--- a/PROJECT/TIME_TRACKING/time_tracking_KochMaris.xlsx
+++ b/PROJECT/TIME_TRACKING/time_tracking_KochMaris.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AKHAIRI\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KOMARIS\IdeaProjects\TINF21C_Team2_AAS_digital_nameplate\PROJECT\TIME_TRACKING\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F072A1BD-E4D7-457E-91CD-37F5F5A08888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,6 +27,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="32">
   <si>
     <t>date</t>
   </si>
@@ -108,12 +111,33 @@
   </si>
   <si>
     <t>42</t>
+  </si>
+  <si>
+    <t>Start of nameplate generation implementation</t>
+  </si>
+  <si>
+    <t>First nameplates are fully generated</t>
+  </si>
+  <si>
+    <t>Markings are added</t>
+  </si>
+  <si>
+    <t>Start of Download functionality</t>
+  </si>
+  <si>
+    <t>Customer demo and follow-up</t>
+  </si>
+  <si>
+    <t>Integration of nameplates into frontend</t>
+  </si>
+  <si>
+    <t>Module Documentations</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -549,30 +573,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F175"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L42" sqref="L42"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" style="7" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="4"/>
-    <col min="3" max="3" width="12.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" style="4"/>
+    <col min="3" max="3" width="12.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="78" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="8"/>
       <c r="B1" s="11"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
       <c r="B2" s="12" t="s">
         <v>5</v>
@@ -583,14 +607,14 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
       <c r="B3" s="11"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>6</v>
       </c>
@@ -610,7 +634,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="14">
         <f t="shared" ref="A5:A7" si="0">IF(B5 &lt;&gt; "", _xlfn.ISOWEEKNUM(B5), "")</f>
         <v>36</v>
@@ -628,7 +652,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="14">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -646,7 +670,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="14">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -664,7 +688,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="14">
         <f>IF(B8 &lt;&gt; "", _xlfn.ISOWEEKNUM(B8), "")</f>
         <v>38</v>
@@ -685,7 +709,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
         <f>IF(B9 &lt;&gt; "", _xlfn.ISOWEEKNUM(B9), "")</f>
         <v>39</v>
@@ -706,7 +730,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="14">
         <f t="shared" ref="A10:A74" si="1">IF(B10 &lt;&gt; "", _xlfn.ISOWEEKNUM(B10), "")</f>
         <v>39</v>
@@ -727,7 +751,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="14">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -748,7 +772,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="14">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -766,7 +790,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="14">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -787,7 +811,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="14">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -808,7 +832,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="14">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -829,7 +853,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>23</v>
       </c>
@@ -846,9 +870,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="14">
-        <f>IF(B17 &lt;&gt; "", _xlfn.ISOWEEKNUM(B17), "")</f>
+        <f t="shared" ref="A17:A25" si="2">IF(B17 &lt;&gt; "", _xlfn.ISOWEEKNUM(B17), "")</f>
         <v>41</v>
       </c>
       <c r="B17" s="4">
@@ -867,9 +891,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="14">
-        <f>IF(B18 &lt;&gt; "", _xlfn.ISOWEEKNUM(B18), "")</f>
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
       <c r="B18" s="4">
@@ -885,9 +909,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="14">
-        <f>IF(B19 &lt;&gt; "", _xlfn.ISOWEEKNUM(B19), "")</f>
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
       <c r="B19" s="4">
@@ -906,9 +930,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="14">
-        <f>IF(B20 &lt;&gt; "", _xlfn.ISOWEEKNUM(B20), "")</f>
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
       <c r="B20" s="4">
@@ -927,9 +951,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="14">
-        <f>IF(B21 &lt;&gt; "", _xlfn.ISOWEEKNUM(B21), "")</f>
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
       <c r="B21" s="4">
@@ -945,9 +969,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="14">
-        <f>IF(B22 &lt;&gt; "", _xlfn.ISOWEEKNUM(B22), "")</f>
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
       <c r="B22" s="4">
@@ -966,9 +990,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="14">
-        <f>IF(B23 &lt;&gt; "", _xlfn.ISOWEEKNUM(B23), "")</f>
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
       <c r="B23" s="4">
@@ -984,9 +1008,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="14">
-        <f>IF(B24 &lt;&gt; "", _xlfn.ISOWEEKNUM(B24), "")</f>
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
       <c r="B24" s="4">
@@ -1002,9 +1026,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
-        <f>IF(B25 &lt;&gt; "", _xlfn.ISOWEEKNUM(B25), "")</f>
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
       <c r="B25" s="4">
@@ -1020,7 +1044,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>24</v>
       </c>
@@ -1037,9 +1061,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="14">
-        <f>IF(B27 &lt;&gt; "", _xlfn.ISOWEEKNUM(B27), "")</f>
+        <f t="shared" ref="A27:A43" si="3">IF(B27 &lt;&gt; "", _xlfn.ISOWEEKNUM(B27), "")</f>
         <v>42</v>
       </c>
       <c r="B27" s="4">
@@ -1055,9 +1079,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
-        <f>IF(B28 &lt;&gt; "", _xlfn.ISOWEEKNUM(B28), "")</f>
+        <f t="shared" si="3"/>
         <v>42</v>
       </c>
       <c r="B28" s="4">
@@ -1073,9 +1097,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="14">
-        <f>IF(B29 &lt;&gt; "", _xlfn.ISOWEEKNUM(B29), "")</f>
+        <f t="shared" si="3"/>
         <v>43</v>
       </c>
       <c r="B29" s="4">
@@ -1091,9 +1115,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="14">
-        <f>IF(B30 &lt;&gt; "", _xlfn.ISOWEEKNUM(B30), "")</f>
+        <f t="shared" si="3"/>
         <v>43</v>
       </c>
       <c r="B30" s="4">
@@ -1109,9 +1133,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="14">
-        <f>IF(B31 &lt;&gt; "", _xlfn.ISOWEEKNUM(B31), "")</f>
+        <f t="shared" si="3"/>
         <v>43</v>
       </c>
       <c r="B31" s="4">
@@ -1127,9 +1151,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="14">
-        <f>IF(B32 &lt;&gt; "", _xlfn.ISOWEEKNUM(B32), "")</f>
+        <f t="shared" si="3"/>
         <v>43</v>
       </c>
       <c r="B32" s="4">
@@ -1145,9 +1169,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="14">
-        <f>IF(B33 &lt;&gt; "", _xlfn.ISOWEEKNUM(B33), "")</f>
+        <f t="shared" si="3"/>
         <v>43</v>
       </c>
       <c r="B33" s="4">
@@ -1163,768 +1187,1023 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="7">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="B34" s="4">
+        <v>45007</v>
+      </c>
+      <c r="C34" s="1">
+        <v>5</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="7">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="B35" s="4">
+        <v>45008</v>
+      </c>
+      <c r="C35" s="1">
+        <v>4</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="7">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="B36" s="4">
+        <v>45018</v>
+      </c>
+      <c r="C36" s="1">
+        <v>5</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" t="s">
+        <v>26</v>
+      </c>
+      <c r="F36" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="7">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="B37" s="4">
+        <v>45022</v>
+      </c>
+      <c r="C37" s="1">
+        <v>8</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" t="s">
+        <v>27</v>
+      </c>
+      <c r="F37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="7">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="B38" s="4">
+        <v>45023</v>
+      </c>
+      <c r="C38" s="1">
+        <v>4</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" t="s">
+        <v>28</v>
+      </c>
+      <c r="F38" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="7">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="B39" s="4">
+        <v>45025</v>
+      </c>
+      <c r="C39" s="1">
+        <v>5</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="7">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="B40" s="4">
+        <v>45028</v>
+      </c>
+      <c r="C40" s="1">
+        <v>5</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="7">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="B41" s="4">
+        <v>45030</v>
+      </c>
+      <c r="C41" s="1">
+        <v>4</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" t="s">
+        <v>29</v>
+      </c>
+      <c r="F41" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="7">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="B42" s="4">
+        <v>45032</v>
+      </c>
+      <c r="C42" s="1">
+        <v>5</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" t="s">
+        <v>30</v>
+      </c>
+      <c r="F42" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="7">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="B43" s="4">
+        <v>45035</v>
+      </c>
+      <c r="C43" s="1">
+        <v>5</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="14">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B44" s="4">
+        <v>45051</v>
+      </c>
+      <c r="C44" s="1">
+        <v>5</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="14">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B45" s="4">
+        <v>45052</v>
+      </c>
+      <c r="C45" s="1">
+        <v>3</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="14">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B46" s="4">
+        <v>45056</v>
+      </c>
+      <c r="C46" s="1">
+        <v>9</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" t="s">
+        <v>31</v>
+      </c>
+      <c r="F46" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="7">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B47" s="4">
+        <v>45057</v>
+      </c>
+      <c r="C47" s="1">
+        <v>4</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="14" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="14" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="14" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="14" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="14" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="14" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="14" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="14" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="14" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" s="14" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" s="14" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" s="14" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="14" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="14" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="14" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="14" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="14" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" s="14" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="14" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" s="14" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="14" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="14" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" s="14" t="str">
-        <f t="shared" ref="A75:A138" si="2">IF(B75 &lt;&gt; "", _xlfn.ISOWEEKNUM(B75), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="A75:A138" si="4">IF(B75 &lt;&gt; "", _xlfn.ISOWEEKNUM(B75), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" s="14" t="str">
-        <f t="shared" ref="A139:A175" si="3">IF(B139 &lt;&gt; "", _xlfn.ISOWEEKNUM(B139), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="A139:A175" si="5">IF(B139 &lt;&gt; "", _xlfn.ISOWEEKNUM(B139), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A172" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A173" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A174" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A175" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
   </sheetData>
-  <dataValidations xWindow="443" yWindow="434" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Options:" prompt="w - weekly_x000a_s - subteam-meeting_x000a_r - research_x000a_c - coding_x000a_f - formalities" sqref="D5:D15 D17:D24 D44:D46 D53:D176 D29:D33 D27">
+  <dataValidations disablePrompts="1" xWindow="443" yWindow="434" count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Options:" prompt="w - weekly_x000a_s - subteam-meeting_x000a_r - research_x000a_c - coding_x000a_f - formalities" sqref="D5:D15 D17:D24 D44:D46 D53:D176 D29:D33 D27" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"w,s,r,c,f"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="format:" prompt="dd.mm.yyyy" sqref="B176 A112:A176"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="format:" prompt="dd.mm.yyyy" sqref="B176 A112:A176" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
